--- a/data_capture/excels/PLPL3_SA_dados.xlsx
+++ b/data_capture/excels/PLPL3_SA_dados.xlsx
@@ -955,7 +955,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H1158"/>
+  <dimension ref="A1:H1160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -992,16 +992,16 @@
         <v>44092</v>
       </c>
       <c r="B2">
-        <v>7.270581639133221</v>
+        <v>7.270580643073421</v>
       </c>
       <c r="C2">
-        <v>7.332458873179347</v>
+        <v>7.332457868642451</v>
       </c>
       <c r="D2">
-        <v>6.651809298671954</v>
+        <v>6.651808387383123</v>
       </c>
       <c r="E2">
-        <v>6.961195468902588</v>
+        <v>6.961194515228271</v>
       </c>
       <c r="F2">
         <v>6292000</v>
@@ -1018,16 +1018,16 @@
         <v>44095</v>
       </c>
       <c r="B3">
-        <v>6.682747942622293</v>
+        <v>6.682746973240362</v>
       </c>
       <c r="C3">
-        <v>6.71368655977002</v>
+        <v>6.713685585900214</v>
       </c>
       <c r="D3">
-        <v>6.419769328049209</v>
+        <v>6.419768396814267</v>
       </c>
       <c r="E3">
-        <v>6.574462413787842</v>
+        <v>6.574461460113525</v>
       </c>
       <c r="F3">
         <v>2249700</v>
@@ -1044,16 +1044,16 @@
         <v>44096</v>
       </c>
       <c r="B4">
-        <v>6.566726647625641</v>
+        <v>6.566727119461002</v>
       </c>
       <c r="C4">
-        <v>6.698215936340994</v>
+        <v>6.698216417624183</v>
       </c>
       <c r="D4">
-        <v>6.357891195782541</v>
+        <v>6.357891652612564</v>
       </c>
       <c r="E4">
-        <v>6.636338710784912</v>
+        <v>6.63633918762207</v>
       </c>
       <c r="F4">
         <v>1926100</v>
@@ -1070,16 +1070,16 @@
         <v>44097</v>
       </c>
       <c r="B5">
-        <v>6.61313503212056</v>
+        <v>6.613135490205726</v>
       </c>
       <c r="C5">
-        <v>6.945724939929563</v>
+        <v>6.945725421052893</v>
       </c>
       <c r="D5">
-        <v>6.589931256607077</v>
+        <v>6.58993171308494</v>
       </c>
       <c r="E5">
-        <v>6.883847713470459</v>
+        <v>6.883848190307617</v>
       </c>
       <c r="F5">
         <v>2828200</v>
@@ -1148,16 +1148,16 @@
         <v>44102</v>
       </c>
       <c r="B8">
-        <v>7.061746158636247</v>
+        <v>7.061745191186624</v>
       </c>
       <c r="C8">
-        <v>7.278316477797691</v>
+        <v>7.278315480678228</v>
       </c>
       <c r="D8">
-        <v>6.721420633747735</v>
+        <v>6.721419712922247</v>
       </c>
       <c r="E8">
-        <v>6.961195468902588</v>
+        <v>6.961194515228271</v>
       </c>
       <c r="F8">
         <v>1240300</v>
@@ -1252,16 +1252,16 @@
         <v>44106</v>
       </c>
       <c r="B12">
-        <v>7.510356993341357</v>
+        <v>7.510356013428359</v>
       </c>
       <c r="C12">
-        <v>7.57996907086296</v>
+        <v>7.579968081867333</v>
       </c>
       <c r="D12">
-        <v>7.293786659212378</v>
+        <v>7.29378570755637</v>
       </c>
       <c r="E12">
-        <v>7.309255599975586</v>
+        <v>7.30925464630127</v>
       </c>
       <c r="F12">
         <v>730400</v>
@@ -1330,16 +1330,16 @@
         <v>44111</v>
       </c>
       <c r="B15">
-        <v>7.533559350610728</v>
+        <v>7.533560338779665</v>
       </c>
       <c r="C15">
-        <v>7.533559350610728</v>
+        <v>7.533560338779665</v>
       </c>
       <c r="D15">
-        <v>7.216438379686324</v>
+        <v>7.216439326258842</v>
       </c>
       <c r="E15">
-        <v>7.270580768585205</v>
+        <v>7.270581722259521</v>
       </c>
       <c r="F15">
         <v>867500</v>
@@ -1408,16 +1408,16 @@
         <v>44117</v>
       </c>
       <c r="B18">
-        <v>7.231907919191931</v>
+        <v>7.231908869816143</v>
       </c>
       <c r="C18">
-        <v>7.324723757402671</v>
+        <v>7.324724720227396</v>
       </c>
       <c r="D18">
-        <v>7.231907919191931</v>
+        <v>7.231908869816143</v>
       </c>
       <c r="E18">
-        <v>7.255111694335938</v>
+        <v>7.255112648010254</v>
       </c>
       <c r="F18">
         <v>160800</v>
@@ -1434,16 +1434,16 @@
         <v>44118</v>
       </c>
       <c r="B19">
-        <v>7.216438759632652</v>
+        <v>7.216437826951171</v>
       </c>
       <c r="C19">
-        <v>7.378866672515868</v>
+        <v>7.378865718841553</v>
       </c>
       <c r="D19">
-        <v>7.023072231801906</v>
+        <v>7.02307132411189</v>
       </c>
       <c r="E19">
-        <v>7.378866672515869</v>
+        <v>7.378865718841553</v>
       </c>
       <c r="F19">
         <v>639200</v>
@@ -1486,16 +1486,16 @@
         <v>44120</v>
       </c>
       <c r="B21">
-        <v>7.363397733859487</v>
+        <v>7.363396782184439</v>
       </c>
       <c r="C21">
-        <v>7.378866672515868</v>
+        <v>7.378865718841553</v>
       </c>
       <c r="D21">
-        <v>7.108153238498919</v>
+        <v>7.108152319812692</v>
       </c>
       <c r="E21">
-        <v>7.378866672515869</v>
+        <v>7.378865718841553</v>
       </c>
       <c r="F21">
         <v>512900</v>
@@ -1512,16 +1512,16 @@
         <v>44123</v>
       </c>
       <c r="B22">
-        <v>7.378867677497189</v>
+        <v>7.378866714740244</v>
       </c>
       <c r="C22">
-        <v>7.425275975056546</v>
+        <v>7.425275006244484</v>
       </c>
       <c r="D22">
-        <v>7.193235962529492</v>
+        <v>7.193235023992824</v>
       </c>
       <c r="E22">
-        <v>7.309255599975586</v>
+        <v>7.30925464630127</v>
       </c>
       <c r="F22">
         <v>222100</v>
@@ -1538,16 +1538,16 @@
         <v>44124</v>
       </c>
       <c r="B23">
-        <v>7.309255499279601</v>
+        <v>7.309255031355303</v>
       </c>
       <c r="C23">
-        <v>7.448479652404784</v>
+        <v>7.448479175567627</v>
       </c>
       <c r="D23">
-        <v>7.247378261809487</v>
+        <v>7.247377797846449</v>
       </c>
       <c r="E23">
-        <v>7.448479652404785</v>
+        <v>7.448479175567627</v>
       </c>
       <c r="F23">
         <v>313400</v>
@@ -1564,16 +1564,16 @@
         <v>44125</v>
       </c>
       <c r="B24">
-        <v>7.463946652294625</v>
+        <v>7.463948579615381</v>
       </c>
       <c r="C24">
-        <v>7.56449732144864</v>
+        <v>7.564499274733326</v>
       </c>
       <c r="D24">
-        <v>7.355661883693889</v>
+        <v>7.355663783053635</v>
       </c>
       <c r="E24">
-        <v>7.386600494384766</v>
+        <v>7.386602401733398</v>
       </c>
       <c r="F24">
         <v>231500</v>
@@ -1590,16 +1590,16 @@
         <v>44126</v>
       </c>
       <c r="B25">
-        <v>7.49488623199043</v>
+        <v>7.494886703475304</v>
       </c>
       <c r="C25">
-        <v>7.579967975616456</v>
+        <v>7.579968452453613</v>
       </c>
       <c r="D25">
-        <v>7.378866611308269</v>
+        <v>7.378867075494634</v>
       </c>
       <c r="E25">
-        <v>7.579967975616455</v>
+        <v>7.579968452453613</v>
       </c>
       <c r="F25">
         <v>150700</v>
@@ -1668,16 +1668,16 @@
         <v>44131</v>
       </c>
       <c r="B28">
-        <v>7.36339729464582</v>
+        <v>7.363397764572324</v>
       </c>
       <c r="C28">
-        <v>7.541294135574185</v>
+        <v>7.541294616853932</v>
       </c>
       <c r="D28">
-        <v>7.347927619277411</v>
+        <v>7.347928088216652</v>
       </c>
       <c r="E28">
-        <v>7.471682071685791</v>
+        <v>7.471682548522949</v>
       </c>
       <c r="F28">
         <v>255100</v>
@@ -1694,16 +1694,16 @@
         <v>44132</v>
       </c>
       <c r="B29">
-        <v>7.231908788516781</v>
+        <v>7.231907859677733</v>
       </c>
       <c r="C29">
-        <v>7.610907024510825</v>
+        <v>7.610906046994675</v>
       </c>
       <c r="D29">
-        <v>7.131358100626255</v>
+        <v>7.131357184701558</v>
       </c>
       <c r="E29">
-        <v>7.425275325775146</v>
+        <v>7.42527437210083</v>
       </c>
       <c r="F29">
         <v>256800</v>
@@ -1720,16 +1720,16 @@
         <v>44133</v>
       </c>
       <c r="B30">
-        <v>7.425273914976921</v>
+        <v>7.425275391633955</v>
       </c>
       <c r="C30">
-        <v>7.425273914976921</v>
+        <v>7.425275391633955</v>
       </c>
       <c r="D30">
-        <v>7.193233966827393</v>
+        <v>7.193235397338867</v>
       </c>
       <c r="E30">
-        <v>7.193233966827393</v>
+        <v>7.193235397338867</v>
       </c>
       <c r="F30">
         <v>460500</v>
@@ -1746,16 +1746,16 @@
         <v>44134</v>
       </c>
       <c r="B31">
-        <v>7.231908481756158</v>
+        <v>7.231907969293203</v>
       </c>
       <c r="C31">
-        <v>7.417540172617775</v>
+        <v>7.417539647000703</v>
       </c>
       <c r="D31">
-        <v>6.729155063629151</v>
+        <v>6.729154586791992</v>
       </c>
       <c r="E31">
-        <v>6.72915506362915</v>
+        <v>6.729154586791992</v>
       </c>
       <c r="F31">
         <v>444800</v>
@@ -1772,16 +1772,16 @@
         <v>44138</v>
       </c>
       <c r="B32">
-        <v>6.791032241277208</v>
+        <v>6.791032748747525</v>
       </c>
       <c r="C32">
-        <v>6.96119499206543</v>
+        <v>6.96119551225142</v>
       </c>
       <c r="D32">
-        <v>6.35789163262416</v>
+        <v>6.35789210772738</v>
       </c>
       <c r="E32">
-        <v>6.381095409393311</v>
+        <v>6.381095886230469</v>
       </c>
       <c r="F32">
         <v>374800</v>
@@ -1798,16 +1798,16 @@
         <v>44139</v>
       </c>
       <c r="B33">
-        <v>6.528053635053468</v>
+        <v>6.52805412524901</v>
       </c>
       <c r="C33">
-        <v>6.528053635053468</v>
+        <v>6.52805412524901</v>
       </c>
       <c r="D33">
-        <v>6.164524726122452</v>
+        <v>6.164525189020386</v>
       </c>
       <c r="E33">
-        <v>6.350156784057617</v>
+        <v>6.350157260894775</v>
       </c>
       <c r="F33">
         <v>1085200</v>
@@ -1824,16 +1824,16 @@
         <v>44140</v>
       </c>
       <c r="B34">
-        <v>6.350156837799729</v>
+        <v>6.350156342877711</v>
       </c>
       <c r="C34">
-        <v>6.651808888395115</v>
+        <v>6.651808369962773</v>
       </c>
       <c r="D34">
-        <v>6.118116855621338</v>
+        <v>6.11811637878418</v>
       </c>
       <c r="E34">
-        <v>6.118116855621338</v>
+        <v>6.11811637878418</v>
       </c>
       <c r="F34">
         <v>648500</v>
@@ -1876,16 +1876,16 @@
         <v>44144</v>
       </c>
       <c r="B36">
-        <v>6.883848585265107</v>
+        <v>6.883847586712043</v>
       </c>
       <c r="C36">
-        <v>7.154562038533828</v>
+        <v>7.154561000711777</v>
       </c>
       <c r="D36">
-        <v>6.504850340796753</v>
+        <v>6.504849397220181</v>
       </c>
       <c r="E36">
-        <v>6.574462413787842</v>
+        <v>6.574461460113525</v>
       </c>
       <c r="F36">
         <v>252000</v>
@@ -1902,16 +1902,16 @@
         <v>44145</v>
       </c>
       <c r="B37">
-        <v>6.690481610290955</v>
+        <v>6.690481136194251</v>
       </c>
       <c r="C37">
-        <v>6.767828516967347</v>
+        <v>6.767828037389735</v>
       </c>
       <c r="D37">
-        <v>6.419768912193123</v>
+        <v>6.419768457279491</v>
       </c>
       <c r="E37">
-        <v>6.72915506362915</v>
+        <v>6.729154586791992</v>
       </c>
       <c r="F37">
         <v>251300</v>
@@ -1928,16 +1928,16 @@
         <v>44146</v>
       </c>
       <c r="B38">
-        <v>6.698216504113809</v>
+        <v>6.698216995710225</v>
       </c>
       <c r="C38">
-        <v>6.698216504113809</v>
+        <v>6.698216995710225</v>
       </c>
       <c r="D38">
-        <v>6.435237904391779</v>
+        <v>6.435238376687635</v>
       </c>
       <c r="E38">
-        <v>6.497115135192871</v>
+        <v>6.497115612030029</v>
       </c>
       <c r="F38">
         <v>440900</v>
@@ -1980,16 +1980,16 @@
         <v>44148</v>
       </c>
       <c r="B40">
-        <v>6.520319669722499</v>
+        <v>6.52032014374816</v>
       </c>
       <c r="C40">
-        <v>6.644074131699594</v>
+        <v>6.644074614722174</v>
       </c>
       <c r="D40">
-        <v>6.319218300192331</v>
+        <v>6.319218759597971</v>
       </c>
       <c r="E40">
-        <v>6.558992385864258</v>
+        <v>6.558992862701416</v>
       </c>
       <c r="F40">
         <v>187900</v>
@@ -2006,16 +2006,16 @@
         <v>44151</v>
       </c>
       <c r="B41">
-        <v>6.566726710757289</v>
+        <v>6.566727207487049</v>
       </c>
       <c r="C41">
-        <v>6.682747063016382</v>
+        <v>6.682747568522322</v>
       </c>
       <c r="D41">
-        <v>6.30374813079834</v>
+        <v>6.303748607635498</v>
       </c>
       <c r="E41">
-        <v>6.30374813079834</v>
+        <v>6.303748607635498</v>
       </c>
       <c r="F41">
         <v>539700</v>
@@ -2032,16 +2032,16 @@
         <v>44152</v>
       </c>
       <c r="B42">
-        <v>6.265075787912792</v>
+        <v>6.265075305115147</v>
       </c>
       <c r="C42">
-        <v>6.381095409393311</v>
+        <v>6.381094917654991</v>
       </c>
       <c r="D42">
-        <v>6.110382344576465</v>
+        <v>6.110381873699765</v>
       </c>
       <c r="E42">
-        <v>6.187728881835938</v>
+        <v>6.187728404998779</v>
       </c>
       <c r="F42">
         <v>538900</v>
@@ -2058,16 +2058,16 @@
         <v>44153</v>
       </c>
       <c r="B43">
-        <v>6.210933152669895</v>
+        <v>6.210932658605088</v>
       </c>
       <c r="C43">
-        <v>6.241871770034777</v>
+        <v>6.241871273508877</v>
       </c>
       <c r="D43">
-        <v>5.963424213750841</v>
+        <v>5.963423739374775</v>
       </c>
       <c r="E43">
-        <v>5.994362831115723</v>
+        <v>5.994362354278564</v>
       </c>
       <c r="F43">
         <v>279200</v>
@@ -2084,16 +2084,16 @@
         <v>44154</v>
       </c>
       <c r="B44">
-        <v>6.009831693642229</v>
+        <v>6.009832179865952</v>
       </c>
       <c r="C44">
-        <v>6.156790299624258</v>
+        <v>6.156790797737625</v>
       </c>
       <c r="D44">
-        <v>5.824200003233804</v>
+        <v>5.824200474439047</v>
       </c>
       <c r="E44">
-        <v>5.893811702728271</v>
+        <v>5.89381217956543</v>
       </c>
       <c r="F44">
         <v>1019600</v>
@@ -2162,16 +2162,16 @@
         <v>44160</v>
       </c>
       <c r="B47">
-        <v>6.388830350108348</v>
+        <v>6.388830818998255</v>
       </c>
       <c r="C47">
-        <v>6.497115135192871</v>
+        <v>6.497115612030029</v>
       </c>
       <c r="D47">
-        <v>6.226402434846788</v>
+        <v>6.226402891815762</v>
       </c>
       <c r="E47">
-        <v>6.497115135192871</v>
+        <v>6.497115612030029</v>
       </c>
       <c r="F47">
         <v>307300</v>
@@ -2188,16 +2188,16 @@
         <v>44161</v>
       </c>
       <c r="B48">
-        <v>6.489380508711753</v>
+        <v>6.489380982163116</v>
       </c>
       <c r="C48">
-        <v>6.628603897915067</v>
+        <v>6.628604381523871</v>
       </c>
       <c r="D48">
-        <v>6.311482931348191</v>
+        <v>6.311483391820525</v>
       </c>
       <c r="E48">
-        <v>6.535788059234619</v>
+        <v>6.535788536071777</v>
       </c>
       <c r="F48">
         <v>343300</v>
@@ -2266,16 +2266,16 @@
         <v>44166</v>
       </c>
       <c r="B51">
-        <v>6.62087068164889</v>
+        <v>6.620869774598608</v>
       </c>
       <c r="C51">
-        <v>6.961195468902588</v>
+        <v>6.961194515228271</v>
       </c>
       <c r="D51">
-        <v>6.489381374892168</v>
+        <v>6.489380485855741</v>
       </c>
       <c r="E51">
-        <v>6.961195468902588</v>
+        <v>6.961194515228271</v>
       </c>
       <c r="F51">
         <v>291800</v>
@@ -2292,16 +2292,16 @@
         <v>44167</v>
       </c>
       <c r="B52">
-        <v>6.852909940504459</v>
+        <v>6.852909001665113</v>
       </c>
       <c r="C52">
-        <v>7.084949936994841</v>
+        <v>7.084948966366332</v>
       </c>
       <c r="D52">
-        <v>6.80650238378727</v>
+        <v>6.806501451305698</v>
       </c>
       <c r="E52">
-        <v>6.961195468902588</v>
+        <v>6.961194515228271</v>
       </c>
       <c r="F52">
         <v>191900</v>
@@ -2318,16 +2318,16 @@
         <v>44168</v>
       </c>
       <c r="B53">
-        <v>6.914787097139225</v>
+        <v>6.914786603745265</v>
       </c>
       <c r="C53">
-        <v>7.03080746290297</v>
+        <v>7.030806961230556</v>
       </c>
       <c r="D53">
-        <v>6.682747840881348</v>
+        <v>6.682747364044189</v>
       </c>
       <c r="E53">
-        <v>6.682747840881348</v>
+        <v>6.682747364044189</v>
       </c>
       <c r="F53">
         <v>379600</v>
@@ -2344,16 +2344,16 @@
         <v>44169</v>
       </c>
       <c r="B54">
-        <v>6.698216882378748</v>
+        <v>6.698215910752932</v>
       </c>
       <c r="C54">
-        <v>6.798767572517564</v>
+        <v>6.798766586306128</v>
       </c>
       <c r="D54">
-        <v>6.535788957944479</v>
+        <v>6.535788009880033</v>
       </c>
       <c r="E54">
-        <v>6.574462413787842</v>
+        <v>6.574461460113525</v>
       </c>
       <c r="F54">
         <v>268900</v>
@@ -2448,16 +2448,16 @@
         <v>44175</v>
       </c>
       <c r="B58">
-        <v>6.319217743155995</v>
+        <v>6.319218233188663</v>
       </c>
       <c r="C58">
-        <v>6.350156355923043</v>
+        <v>6.35015684835489</v>
       </c>
       <c r="D58">
-        <v>6.079443309802692</v>
+        <v>6.079443781241713</v>
       </c>
       <c r="E58">
-        <v>6.149055004119873</v>
+        <v>6.149055480957031</v>
       </c>
       <c r="F58">
         <v>408200</v>
@@ -2526,16 +2526,16 @@
         <v>44180</v>
       </c>
       <c r="B61">
-        <v>6.179994592621227</v>
+        <v>6.179994097825269</v>
       </c>
       <c r="C61">
-        <v>6.334687680880334</v>
+        <v>6.334687173699007</v>
       </c>
       <c r="D61">
-        <v>5.955689430236816</v>
+        <v>5.955688953399658</v>
       </c>
       <c r="E61">
-        <v>5.955689430236816</v>
+        <v>5.955688953399658</v>
       </c>
       <c r="F61">
         <v>800000</v>
@@ -2578,16 +2578,16 @@
         <v>44182</v>
       </c>
       <c r="B63">
-        <v>6.079443687838611</v>
+        <v>6.079444165892189</v>
       </c>
       <c r="C63">
-        <v>6.110382302529504</v>
+        <v>6.110382783015923</v>
       </c>
       <c r="D63">
-        <v>5.955688860257658</v>
+        <v>5.955689328579846</v>
       </c>
       <c r="E63">
-        <v>6.063974380493164</v>
+        <v>6.063974857330322</v>
       </c>
       <c r="F63">
         <v>466100</v>
@@ -2656,16 +2656,16 @@
         <v>44187</v>
       </c>
       <c r="B66">
-        <v>6.149055004119873</v>
+        <v>6.149055480957031</v>
       </c>
       <c r="C66">
-        <v>6.381094968690092</v>
+        <v>6.381095463521117</v>
       </c>
       <c r="D66">
-        <v>6.079443309802692</v>
+        <v>6.079443781241713</v>
       </c>
       <c r="E66">
-        <v>6.149055004119873</v>
+        <v>6.149055480957031</v>
       </c>
       <c r="F66">
         <v>843200</v>
@@ -2682,16 +2682,16 @@
         <v>44188</v>
       </c>
       <c r="B67">
-        <v>6.156790266932148</v>
+        <v>6.15679072700776</v>
       </c>
       <c r="C67">
-        <v>6.381095409393311</v>
+        <v>6.381095886230469</v>
       </c>
       <c r="D67">
-        <v>6.040770276634248</v>
+        <v>6.040770728040087</v>
       </c>
       <c r="E67">
-        <v>6.381095409393311</v>
+        <v>6.381095886230469</v>
       </c>
       <c r="F67">
         <v>639900</v>
@@ -2708,16 +2708,16 @@
         <v>44193</v>
       </c>
       <c r="B68">
-        <v>6.365625293489211</v>
+        <v>6.365625787120618</v>
       </c>
       <c r="C68">
-        <v>6.458441869425068</v>
+        <v>6.458442370254069</v>
       </c>
       <c r="D68">
-        <v>6.149055004119873</v>
+        <v>6.149055480957031</v>
       </c>
       <c r="E68">
-        <v>6.149055004119873</v>
+        <v>6.149055480957031</v>
       </c>
       <c r="F68">
         <v>555100</v>
@@ -2734,16 +2734,16 @@
         <v>44194</v>
       </c>
       <c r="B69">
-        <v>6.179994535305013</v>
+        <v>6.179994043701299</v>
       </c>
       <c r="C69">
-        <v>6.18772937405494</v>
+        <v>6.187728881835938</v>
       </c>
       <c r="D69">
-        <v>5.994362831115723</v>
+        <v>5.994362354278564</v>
       </c>
       <c r="E69">
-        <v>5.994362831115723</v>
+        <v>5.994362354278564</v>
       </c>
       <c r="F69">
         <v>724400</v>
@@ -2760,16 +2760,16 @@
         <v>44195</v>
       </c>
       <c r="B70">
-        <v>6.07170916473698</v>
+        <v>6.071708672214389</v>
       </c>
       <c r="C70">
-        <v>6.07170916473698</v>
+        <v>6.071708672214389</v>
       </c>
       <c r="D70">
-        <v>5.878342628479004</v>
+        <v>5.878342151641846</v>
       </c>
       <c r="E70">
-        <v>5.878342628479004</v>
+        <v>5.878342151641846</v>
       </c>
       <c r="F70">
         <v>967700</v>
@@ -2786,16 +2786,16 @@
         <v>44200</v>
       </c>
       <c r="B71">
-        <v>5.947954977961082</v>
+        <v>5.947954485762711</v>
       </c>
       <c r="C71">
-        <v>6.094913596653966</v>
+        <v>6.094913092294643</v>
       </c>
       <c r="D71">
-        <v>5.731384284935406</v>
+        <v>5.731383810658445</v>
       </c>
       <c r="E71">
-        <v>5.762322902679443</v>
+        <v>5.762322425842285</v>
       </c>
       <c r="F71">
         <v>827200</v>
@@ -2890,16 +2890,16 @@
         <v>44204</v>
       </c>
       <c r="B75">
-        <v>5.16675348355875</v>
+        <v>5.166753938597627</v>
       </c>
       <c r="C75">
-        <v>5.561221376808135</v>
+        <v>5.56122186658802</v>
       </c>
       <c r="D75">
-        <v>5.128080399337705</v>
+        <v>5.128080850970622</v>
       </c>
       <c r="E75">
-        <v>5.414262771606445</v>
+        <v>5.414263248443604</v>
       </c>
       <c r="F75">
         <v>2136500</v>
@@ -2916,16 +2916,16 @@
         <v>44207</v>
       </c>
       <c r="B76">
-        <v>5.630833178236851</v>
+        <v>5.630833678434918</v>
       </c>
       <c r="C76">
-        <v>5.646302484956567</v>
+        <v>5.646302986528802</v>
       </c>
       <c r="D76">
-        <v>5.321446675025181</v>
+        <v>5.321447147739831</v>
       </c>
       <c r="E76">
-        <v>5.367854595184326</v>
+        <v>5.367855072021484</v>
       </c>
       <c r="F76">
         <v>2601700</v>
@@ -2968,16 +2968,16 @@
         <v>44209</v>
       </c>
       <c r="B78">
-        <v>5.476140256200193</v>
+        <v>5.476139778012223</v>
       </c>
       <c r="C78">
-        <v>5.476140256200193</v>
+        <v>5.476139778012223</v>
       </c>
       <c r="D78">
-        <v>5.360120260504277</v>
+        <v>5.360119792447414</v>
       </c>
       <c r="E78">
-        <v>5.460670948028564</v>
+        <v>5.460670471191406</v>
       </c>
       <c r="F78">
         <v>518800</v>
@@ -3046,16 +3046,16 @@
         <v>44214</v>
       </c>
       <c r="B81">
-        <v>5.483875274658203</v>
+        <v>5.483874797821045</v>
       </c>
       <c r="C81">
-        <v>5.553486979306269</v>
+        <v>5.553486496416194</v>
       </c>
       <c r="D81">
-        <v>5.391059053765095</v>
+        <v>5.391058584998548</v>
       </c>
       <c r="E81">
-        <v>5.483875274658203</v>
+        <v>5.483874797821045</v>
       </c>
       <c r="F81">
         <v>228900</v>
@@ -3202,16 +3202,16 @@
         <v>44223</v>
       </c>
       <c r="B87">
-        <v>5.213161224332509</v>
+        <v>5.213161702588825</v>
       </c>
       <c r="C87">
-        <v>5.321446741541413</v>
+        <v>5.32144722973186</v>
       </c>
       <c r="D87">
-        <v>5.112610913806198</v>
+        <v>5.11261138283801</v>
       </c>
       <c r="E87">
-        <v>5.197691917419434</v>
+        <v>5.197692394256592</v>
       </c>
       <c r="F87">
         <v>208900</v>
@@ -3228,16 +3228,16 @@
         <v>44224</v>
       </c>
       <c r="B88">
-        <v>5.244100141426603</v>
+        <v>5.244100607270408</v>
       </c>
       <c r="C88">
-        <v>5.391058370855217</v>
+        <v>5.391058849753612</v>
       </c>
       <c r="D88">
-        <v>5.236365303658063</v>
+        <v>5.236365768814768</v>
       </c>
       <c r="E88">
-        <v>5.367854595184326</v>
+        <v>5.367855072021484</v>
       </c>
       <c r="F88">
         <v>265500</v>
@@ -3332,16 +3332,16 @@
         <v>44230</v>
       </c>
       <c r="B92">
-        <v>5.34465113521163</v>
+        <v>5.344650650660953</v>
       </c>
       <c r="C92">
-        <v>5.398793900073644</v>
+        <v>5.398793410614338</v>
       </c>
       <c r="D92">
-        <v>5.228631504363246</v>
+        <v>5.22863103033101</v>
       </c>
       <c r="E92">
-        <v>5.259570121765137</v>
+        <v>5.259569644927979</v>
       </c>
       <c r="F92">
         <v>916100</v>
@@ -3358,16 +3358,16 @@
         <v>44231</v>
       </c>
       <c r="B93">
-        <v>5.267303971203432</v>
+        <v>5.267304457320364</v>
       </c>
       <c r="C93">
-        <v>5.298242584960666</v>
+        <v>5.298243073932907</v>
       </c>
       <c r="D93">
-        <v>5.104876064569274</v>
+        <v>5.104876535695812</v>
       </c>
       <c r="E93">
-        <v>5.16675329208374</v>
+        <v>5.166753768920898</v>
       </c>
       <c r="F93">
         <v>416800</v>
@@ -3488,16 +3488,16 @@
         <v>44238</v>
       </c>
       <c r="B98">
-        <v>4.934713595985529</v>
+        <v>4.934714074322173</v>
       </c>
       <c r="C98">
-        <v>4.98885598463252</v>
+        <v>4.98885646821735</v>
       </c>
       <c r="D98">
-        <v>4.919244289398193</v>
+        <v>4.919244766235352</v>
       </c>
       <c r="E98">
-        <v>4.919244289398193</v>
+        <v>4.919244766235352</v>
       </c>
       <c r="F98">
         <v>132000</v>
@@ -3514,16 +3514,16 @@
         <v>44239</v>
       </c>
       <c r="B99">
-        <v>4.919244829243319</v>
+        <v>4.91924435165522</v>
       </c>
       <c r="C99">
-        <v>4.973387223831977</v>
+        <v>4.973386740987427</v>
       </c>
       <c r="D99">
-        <v>4.88057137412222</v>
+        <v>4.880570900288757</v>
       </c>
       <c r="E99">
-        <v>4.911509990692139</v>
+        <v>4.91150951385498</v>
       </c>
       <c r="F99">
         <v>208200</v>
@@ -3592,16 +3592,16 @@
         <v>44246</v>
       </c>
       <c r="B102">
-        <v>4.934713634486426</v>
+        <v>4.934714119689159</v>
       </c>
       <c r="C102">
-        <v>4.934713634486426</v>
+        <v>4.934714119689159</v>
       </c>
       <c r="D102">
-        <v>4.841897794238262</v>
+        <v>4.841898270314934</v>
       </c>
       <c r="E102">
-        <v>4.849632263183594</v>
+        <v>4.849632740020752</v>
       </c>
       <c r="F102">
         <v>303700</v>
@@ -3670,16 +3670,16 @@
         <v>44251</v>
       </c>
       <c r="B105">
-        <v>4.70267340798955</v>
+        <v>4.702673891184531</v>
       </c>
       <c r="C105">
-        <v>4.749081325576867</v>
+        <v>4.749081813540215</v>
       </c>
       <c r="D105">
-        <v>4.571184123750148</v>
+        <v>4.571184593434737</v>
       </c>
       <c r="E105">
-        <v>4.640796184539795</v>
+        <v>4.640796661376953</v>
       </c>
       <c r="F105">
         <v>201500</v>
@@ -3774,16 +3774,16 @@
         <v>44257</v>
       </c>
       <c r="B109">
-        <v>4.39328708233161</v>
+        <v>4.39328756858563</v>
       </c>
       <c r="C109">
-        <v>4.39328708233161</v>
+        <v>4.39328756858563</v>
       </c>
       <c r="D109">
-        <v>4.199920567582232</v>
+        <v>4.199921032434226</v>
       </c>
       <c r="E109">
-        <v>4.308206081390381</v>
+        <v>4.308206558227539</v>
       </c>
       <c r="F109">
         <v>317400</v>
@@ -3852,16 +3852,16 @@
         <v>44260</v>
       </c>
       <c r="B112">
-        <v>4.486104003980444</v>
+        <v>4.48610352383192</v>
       </c>
       <c r="C112">
-        <v>4.640797092882908</v>
+        <v>4.640796596177554</v>
       </c>
       <c r="D112">
-        <v>4.339145385114395</v>
+        <v>4.339144920694879</v>
       </c>
       <c r="E112">
-        <v>4.455165386199951</v>
+        <v>4.455164909362793</v>
       </c>
       <c r="F112">
         <v>312700</v>
@@ -3904,16 +3904,16 @@
         <v>44264</v>
       </c>
       <c r="B114">
-        <v>4.269532694628065</v>
+        <v>4.269533186617065</v>
       </c>
       <c r="C114">
-        <v>4.269532694628065</v>
+        <v>4.269533186617065</v>
       </c>
       <c r="D114">
-        <v>4.029758257018751</v>
+        <v>4.029758721377939</v>
       </c>
       <c r="E114">
-        <v>4.138043403625488</v>
+        <v>4.138043880462646</v>
       </c>
       <c r="F114">
         <v>481900</v>
@@ -4190,16 +4190,16 @@
         <v>44279</v>
       </c>
       <c r="B125">
-        <v>4.609857249780798</v>
+        <v>4.609857741467541</v>
       </c>
       <c r="C125">
-        <v>4.764550297565126</v>
+        <v>4.764550805751409</v>
       </c>
       <c r="D125">
-        <v>4.447429365198595</v>
+        <v>4.447429839560801</v>
       </c>
       <c r="E125">
-        <v>4.470633506774902</v>
+        <v>4.470633983612061</v>
       </c>
       <c r="F125">
         <v>514400</v>
@@ -4242,16 +4242,16 @@
         <v>44281</v>
       </c>
       <c r="B127">
-        <v>4.756816873006025</v>
+        <v>4.756816399250202</v>
       </c>
       <c r="C127">
-        <v>4.865102030207715</v>
+        <v>4.865101545667218</v>
       </c>
       <c r="D127">
-        <v>4.57891964462312</v>
+        <v>4.578919188584996</v>
       </c>
       <c r="E127">
-        <v>4.787755489349365</v>
+        <v>4.787755012512207</v>
       </c>
       <c r="F127">
         <v>1160700</v>
@@ -4320,16 +4320,16 @@
         <v>44286</v>
       </c>
       <c r="B130">
-        <v>4.826428118712871</v>
+        <v>4.826428593268496</v>
       </c>
       <c r="C130">
-        <v>4.942448103431757</v>
+        <v>4.942448589394977</v>
       </c>
       <c r="D130">
-        <v>4.71814297175668</v>
+        <v>4.718143435665233</v>
       </c>
       <c r="E130">
-        <v>4.849632263183594</v>
+        <v>4.849632740020752</v>
       </c>
       <c r="F130">
         <v>2675900</v>
@@ -4346,16 +4346,16 @@
         <v>44287</v>
       </c>
       <c r="B131">
-        <v>4.865101836003153</v>
+        <v>4.865101345920513</v>
       </c>
       <c r="C131">
-        <v>4.965652519513938</v>
+        <v>4.965652019302394</v>
       </c>
       <c r="D131">
-        <v>4.733612537384033</v>
+        <v>4.733612060546875</v>
       </c>
       <c r="E131">
-        <v>4.733612537384033</v>
+        <v>4.733612060546875</v>
       </c>
       <c r="F131">
         <v>373300</v>
@@ -4372,16 +4372,16 @@
         <v>44291</v>
       </c>
       <c r="B132">
-        <v>4.826428081056823</v>
+        <v>4.826428548897026</v>
       </c>
       <c r="C132">
-        <v>4.919244289398193</v>
+        <v>4.919244766235352</v>
       </c>
       <c r="D132">
-        <v>4.795489467882153</v>
+        <v>4.795489932723384</v>
       </c>
       <c r="E132">
-        <v>4.919244289398193</v>
+        <v>4.919244766235352</v>
       </c>
       <c r="F132">
         <v>400300</v>
@@ -4502,16 +4502,16 @@
         <v>44298</v>
       </c>
       <c r="B137">
-        <v>5.329181396212334</v>
+        <v>5.329181865556328</v>
       </c>
       <c r="C137">
-        <v>5.468405532096767</v>
+        <v>5.468406013702309</v>
       </c>
       <c r="D137">
-        <v>5.329181396212334</v>
+        <v>5.329181865556328</v>
       </c>
       <c r="E137">
-        <v>5.414262771606445</v>
+        <v>5.414263248443604</v>
       </c>
       <c r="F137">
         <v>809800</v>
@@ -4554,16 +4554,16 @@
         <v>44300</v>
       </c>
       <c r="B139">
-        <v>5.321446651163289</v>
+        <v>5.321447129390641</v>
       </c>
       <c r="C139">
-        <v>5.414262491065386</v>
+        <v>5.414262977633905</v>
       </c>
       <c r="D139">
-        <v>5.228630811261192</v>
+        <v>5.228631281147378</v>
       </c>
       <c r="E139">
-        <v>5.305977344512939</v>
+        <v>5.305977821350098</v>
       </c>
       <c r="F139">
         <v>451900</v>
@@ -4606,16 +4606,16 @@
         <v>44302</v>
       </c>
       <c r="B141">
-        <v>5.329180952475562</v>
+        <v>5.329181416516238</v>
       </c>
       <c r="C141">
-        <v>5.607628832241951</v>
+        <v>5.607629320528594</v>
       </c>
       <c r="D141">
-        <v>5.305977177638484</v>
+        <v>5.305977639658682</v>
       </c>
       <c r="E141">
-        <v>5.476139545440674</v>
+        <v>5.476140022277832</v>
       </c>
       <c r="F141">
         <v>1623400</v>
@@ -4658,16 +4658,16 @@
         <v>44306</v>
       </c>
       <c r="B143">
-        <v>5.383324167016016</v>
+        <v>5.383324638434575</v>
       </c>
       <c r="C143">
-        <v>5.460670704423669</v>
+        <v>5.460671182615477</v>
       </c>
       <c r="D143">
-        <v>5.259569707163771</v>
+        <v>5.259570167745133</v>
       </c>
       <c r="E143">
-        <v>5.445201396942139</v>
+        <v>5.445201873779297</v>
       </c>
       <c r="F143">
         <v>504300</v>
@@ -4736,16 +4736,16 @@
         <v>44312</v>
       </c>
       <c r="B146">
-        <v>5.329181449851006</v>
+        <v>5.329181940210417</v>
       </c>
       <c r="C146">
-        <v>5.37558937267379</v>
+        <v>5.37558986730338</v>
       </c>
       <c r="D146">
-        <v>5.073937689917005</v>
+        <v>5.073938156790411</v>
       </c>
       <c r="E146">
-        <v>5.182222843170166</v>
+        <v>5.182223320007324</v>
       </c>
       <c r="F146">
         <v>958800</v>
@@ -4788,16 +4788,16 @@
         <v>44314</v>
       </c>
       <c r="B148">
-        <v>5.081672190349733</v>
+        <v>5.081672652417597</v>
       </c>
       <c r="C148">
-        <v>5.259569400420899</v>
+        <v>5.259569878664656</v>
       </c>
       <c r="D148">
-        <v>5.035264270611693</v>
+        <v>5.035264728459763</v>
       </c>
       <c r="E148">
-        <v>5.244100093841553</v>
+        <v>5.244100570678711</v>
       </c>
       <c r="F148">
         <v>416000</v>
@@ -4814,16 +4814,16 @@
         <v>44315</v>
       </c>
       <c r="B149">
-        <v>5.182223217214413</v>
+        <v>5.182222750137104</v>
       </c>
       <c r="C149">
-        <v>5.29050874710083</v>
+        <v>5.290508270263672</v>
       </c>
       <c r="D149">
-        <v>5.143550129812761</v>
+        <v>5.143549666221084</v>
       </c>
       <c r="E149">
-        <v>5.29050874710083</v>
+        <v>5.290508270263672</v>
       </c>
       <c r="F149">
         <v>347400</v>
@@ -4840,16 +4840,16 @@
         <v>44316</v>
       </c>
       <c r="B150">
-        <v>5.290508322126832</v>
+        <v>5.290508785417493</v>
       </c>
       <c r="C150">
-        <v>5.445201396942139</v>
+        <v>5.445201873779297</v>
       </c>
       <c r="D150">
-        <v>5.073937648568021</v>
+        <v>5.073938092893553</v>
       </c>
       <c r="E150">
-        <v>5.445201396942139</v>
+        <v>5.445201873779297</v>
       </c>
       <c r="F150">
         <v>1478100</v>
@@ -4892,16 +4892,16 @@
         <v>44320</v>
       </c>
       <c r="B152">
-        <v>5.449841372298423</v>
+        <v>5.449841848440468</v>
       </c>
       <c r="C152">
-        <v>5.457797527313232</v>
+        <v>5.457798004150391</v>
       </c>
       <c r="D152">
-        <v>5.25094204937242</v>
+        <v>5.250942508137017</v>
       </c>
       <c r="E152">
-        <v>5.457797527313232</v>
+        <v>5.457798004150391</v>
       </c>
       <c r="F152">
         <v>654700</v>
@@ -5100,16 +5100,16 @@
         <v>44330</v>
       </c>
       <c r="B160">
-        <v>4.972482721010843</v>
+        <v>4.972483217716217</v>
       </c>
       <c r="C160">
-        <v>5.147513945867482</v>
+        <v>5.147514460056868</v>
       </c>
       <c r="D160">
-        <v>4.662199905443458</v>
+        <v>4.662200371154427</v>
       </c>
       <c r="E160">
-        <v>4.77358341217041</v>
+        <v>4.773583889007568</v>
       </c>
       <c r="F160">
         <v>3177800</v>
@@ -5178,16 +5178,16 @@
         <v>44335</v>
       </c>
       <c r="B163">
-        <v>4.99635111815185</v>
+        <v>4.996351598815966</v>
       </c>
       <c r="C163">
-        <v>5.044086909741059</v>
+        <v>5.044087394997504</v>
       </c>
       <c r="D163">
-        <v>4.87701144949365</v>
+        <v>4.877011918676929</v>
       </c>
       <c r="E163">
-        <v>4.956571102142334</v>
+        <v>4.956571578979492</v>
       </c>
       <c r="F163">
         <v>363500</v>
@@ -5282,16 +5282,16 @@
         <v>44341</v>
       </c>
       <c r="B167">
-        <v>4.797451873586897</v>
+        <v>4.797451399110297</v>
       </c>
       <c r="C167">
-        <v>4.829275735155438</v>
+        <v>4.829275257531401</v>
       </c>
       <c r="D167">
-        <v>4.733803771079462</v>
+        <v>4.733803302897774</v>
       </c>
       <c r="E167">
-        <v>4.821319580078125</v>
+        <v>4.821319103240967</v>
       </c>
       <c r="F167">
         <v>1163700</v>
@@ -5516,16 +5516,16 @@
         <v>44355</v>
       </c>
       <c r="B176">
-        <v>5.107734400496152</v>
+        <v>5.107734888740904</v>
       </c>
       <c r="C176">
-        <v>5.139558260114106</v>
+        <v>5.139558751400879</v>
       </c>
       <c r="D176">
-        <v>4.940658947816719</v>
+        <v>4.940659420090847</v>
       </c>
       <c r="E176">
-        <v>4.988394737243652</v>
+        <v>4.988395214080811</v>
       </c>
       <c r="F176">
         <v>1498300</v>
@@ -5542,16 +5542,16 @@
         <v>44356</v>
       </c>
       <c r="B177">
-        <v>5.04408714117478</v>
+        <v>5.044086652782594</v>
       </c>
       <c r="C177">
-        <v>5.155470659993456</v>
+        <v>5.155470160816595</v>
       </c>
       <c r="D177">
-        <v>4.845187810741962</v>
+        <v>4.845187341608143</v>
       </c>
       <c r="E177">
-        <v>4.924747467041016</v>
+        <v>4.924746990203857</v>
       </c>
       <c r="F177">
         <v>3550500</v>
@@ -5620,16 +5620,16 @@
         <v>44361</v>
       </c>
       <c r="B180">
-        <v>4.996351347395348</v>
+        <v>4.996350863625166</v>
       </c>
       <c r="C180">
-        <v>5.107734866214023</v>
+        <v>5.107734371659165</v>
       </c>
       <c r="D180">
-        <v>4.845187810741962</v>
+        <v>4.845187341608143</v>
       </c>
       <c r="E180">
-        <v>4.924747467041016</v>
+        <v>4.924746990203857</v>
       </c>
       <c r="F180">
         <v>2792300</v>
@@ -5724,16 +5724,16 @@
         <v>44365</v>
       </c>
       <c r="B184">
-        <v>5.171382036790558</v>
+        <v>5.171382494610578</v>
       </c>
       <c r="C184">
-        <v>5.38619327545166</v>
+        <v>5.386193752288818</v>
       </c>
       <c r="D184">
-        <v>5.131602023220962</v>
+        <v>5.131602477519277</v>
       </c>
       <c r="E184">
-        <v>5.38619327545166</v>
+        <v>5.386193752288818</v>
       </c>
       <c r="F184">
         <v>1588400</v>
@@ -5750,16 +5750,16 @@
         <v>44368</v>
       </c>
       <c r="B185">
-        <v>5.481665083196669</v>
+        <v>5.481665573556079</v>
       </c>
       <c r="C185">
-        <v>5.56918088910632</v>
+        <v>5.56918138729441</v>
       </c>
       <c r="D185">
-        <v>5.242986129857174</v>
+        <v>5.242986598865686</v>
       </c>
       <c r="E185">
-        <v>5.330501556396484</v>
+        <v>5.330502033233643</v>
       </c>
       <c r="F185">
         <v>2466400</v>
@@ -5776,16 +5776,16 @@
         <v>44369</v>
       </c>
       <c r="B186">
-        <v>5.330501631412051</v>
+        <v>5.3305011443985</v>
       </c>
       <c r="C186">
-        <v>5.362325492305171</v>
+        <v>5.362325002384079</v>
       </c>
       <c r="D186">
-        <v>5.163426172038</v>
+        <v>5.163425700289055</v>
       </c>
       <c r="E186">
-        <v>5.219118118286133</v>
+        <v>5.219117641448975</v>
       </c>
       <c r="F186">
         <v>1562000</v>
@@ -5854,16 +5854,16 @@
         <v>44372</v>
       </c>
       <c r="B189">
-        <v>5.274810417643142</v>
+        <v>5.274809936451311</v>
       </c>
       <c r="C189">
-        <v>5.354370075201862</v>
+        <v>5.354369586752243</v>
       </c>
       <c r="D189">
-        <v>5.139558810108132</v>
+        <v>5.139558341254559</v>
       </c>
       <c r="E189">
-        <v>5.22707462310791</v>
+        <v>5.227074146270752</v>
       </c>
       <c r="F189">
         <v>1009400</v>
@@ -5932,16 +5932,16 @@
         <v>44377</v>
       </c>
       <c r="B192">
-        <v>4.980438835662207</v>
+        <v>4.980439313262322</v>
       </c>
       <c r="C192">
-        <v>5.028174623878003</v>
+        <v>5.028175106055751</v>
       </c>
       <c r="D192">
-        <v>4.892923034248088</v>
+        <v>4.892923503455859</v>
       </c>
       <c r="E192">
-        <v>4.972482681274414</v>
+        <v>4.972483158111572</v>
       </c>
       <c r="F192">
         <v>1417600</v>
@@ -5958,16 +5958,16 @@
         <v>44378</v>
       </c>
       <c r="B193">
-        <v>5.004306509782785</v>
+        <v>5.004306998269067</v>
       </c>
       <c r="C193">
-        <v>5.004306509782785</v>
+        <v>5.004306998269067</v>
       </c>
       <c r="D193">
-        <v>4.813363358075804</v>
+        <v>4.813363827923517</v>
       </c>
       <c r="E193">
-        <v>4.884966850280762</v>
+        <v>4.88496732711792</v>
       </c>
       <c r="F193">
         <v>1468400</v>
@@ -6062,16 +6062,16 @@
         <v>44384</v>
       </c>
       <c r="B197">
-        <v>5.036130857916311</v>
+        <v>5.036130368713857</v>
       </c>
       <c r="C197">
-        <v>5.235030183296073</v>
+        <v>5.235029674772827</v>
       </c>
       <c r="D197">
-        <v>4.89292348021621</v>
+        <v>4.892923004924715</v>
       </c>
       <c r="E197">
-        <v>4.908835411071777</v>
+        <v>4.908834934234619</v>
       </c>
       <c r="F197">
         <v>3806300</v>
@@ -6114,16 +6114,16 @@
         <v>44389</v>
       </c>
       <c r="B199">
-        <v>4.869055536772304</v>
+        <v>4.869055073559087</v>
       </c>
       <c r="C199">
-        <v>5.07591102332</v>
+        <v>5.075910540427773</v>
       </c>
       <c r="D199">
-        <v>4.829275898154155</v>
+        <v>4.829275438725339</v>
       </c>
       <c r="E199">
-        <v>5.012263298034668</v>
+        <v>5.01226282119751</v>
       </c>
       <c r="F199">
         <v>1862400</v>
@@ -6166,16 +6166,16 @@
         <v>44391</v>
       </c>
       <c r="B201">
-        <v>5.091822954641333</v>
+        <v>5.091822470235338</v>
       </c>
       <c r="C201">
-        <v>5.203206473890664</v>
+        <v>5.203205978888299</v>
       </c>
       <c r="D201">
-        <v>4.90883555476082</v>
+        <v>4.908835087763167</v>
       </c>
       <c r="E201">
-        <v>5.012263298034668</v>
+        <v>5.01226282119751</v>
       </c>
       <c r="F201">
         <v>2795600</v>
@@ -6270,16 +6270,16 @@
         <v>44397</v>
       </c>
       <c r="B205">
-        <v>4.805407271235254</v>
+        <v>4.805407751251323</v>
       </c>
       <c r="C205">
-        <v>4.884966918897362</v>
+        <v>4.88496740686071</v>
       </c>
       <c r="D205">
-        <v>4.67811183497588</v>
+        <v>4.678112302276304</v>
       </c>
       <c r="E205">
-        <v>4.77358341217041</v>
+        <v>4.773583889007568</v>
       </c>
       <c r="F205">
         <v>1303900</v>
@@ -6348,16 +6348,16 @@
         <v>44400</v>
       </c>
       <c r="B208">
-        <v>4.701980566028949</v>
+        <v>4.701979580676628</v>
       </c>
       <c r="C208">
-        <v>4.717892499034936</v>
+        <v>4.717891510348093</v>
       </c>
       <c r="D208">
-        <v>4.471257347756929</v>
+        <v>4.471256410755225</v>
       </c>
       <c r="E208">
-        <v>4.550817012786865</v>
+        <v>4.550816059112549</v>
       </c>
       <c r="F208">
         <v>1622000</v>
@@ -6400,16 +6400,16 @@
         <v>44404</v>
       </c>
       <c r="B210">
-        <v>4.407609173667261</v>
+        <v>4.407608676176137</v>
       </c>
       <c r="C210">
-        <v>4.407609173667261</v>
+        <v>4.407608676176137</v>
       </c>
       <c r="D210">
-        <v>4.224621772766113</v>
+        <v>4.224621295928955</v>
       </c>
       <c r="E210">
-        <v>4.224621772766113</v>
+        <v>4.224621295928955</v>
       </c>
       <c r="F210">
         <v>1040600</v>
@@ -6452,16 +6452,16 @@
         <v>44406</v>
       </c>
       <c r="B212">
-        <v>4.272357073180184</v>
+        <v>4.272357527190032</v>
       </c>
       <c r="C212">
-        <v>4.503080241643673</v>
+        <v>4.503080720171742</v>
       </c>
       <c r="D212">
-        <v>4.272357073180184</v>
+        <v>4.272357527190032</v>
       </c>
       <c r="E212">
-        <v>4.487168312072754</v>
+        <v>4.487168788909912</v>
       </c>
       <c r="F212">
         <v>1769800</v>
@@ -6504,16 +6504,16 @@
         <v>44410</v>
       </c>
       <c r="B214">
-        <v>4.399653003295651</v>
+        <v>4.399653502710326</v>
       </c>
       <c r="C214">
-        <v>4.463300723231083</v>
+        <v>4.463301229870557</v>
       </c>
       <c r="D214">
-        <v>4.121193659522629</v>
+        <v>4.121194127328747</v>
       </c>
       <c r="E214">
-        <v>4.200753688812256</v>
+        <v>4.200754165649414</v>
       </c>
       <c r="F214">
         <v>1876000</v>
@@ -6530,16 +6530,16 @@
         <v>44411</v>
       </c>
       <c r="B215">
-        <v>4.216665894931282</v>
+        <v>4.216666365552713</v>
       </c>
       <c r="C215">
-        <v>4.288269394862547</v>
+        <v>4.288269873475633</v>
       </c>
       <c r="D215">
-        <v>4.073458136328031</v>
+        <v>4.073458590966066</v>
       </c>
       <c r="E215">
-        <v>4.27235746383667</v>
+        <v>4.272357940673828</v>
       </c>
       <c r="F215">
         <v>678800</v>
@@ -6556,16 +6556,16 @@
         <v>44412</v>
       </c>
       <c r="B216">
-        <v>4.272357924601819</v>
+        <v>4.272357440553519</v>
       </c>
       <c r="C216">
-        <v>4.296226013399939</v>
+        <v>4.29622552664744</v>
       </c>
       <c r="D216">
-        <v>4.15301823935202</v>
+        <v>4.153017768824632</v>
       </c>
       <c r="E216">
-        <v>4.208710193634033</v>
+        <v>4.208709716796875</v>
       </c>
       <c r="F216">
         <v>459600</v>
@@ -6660,16 +6660,16 @@
         <v>44418</v>
       </c>
       <c r="B220">
-        <v>4.001854669333056</v>
+        <v>4.001854196257923</v>
       </c>
       <c r="C220">
-        <v>4.073458169853637</v>
+        <v>4.07345768831397</v>
       </c>
       <c r="D220">
-        <v>3.954118496492185</v>
+        <v>3.954118029060135</v>
       </c>
       <c r="E220">
-        <v>4.033678531646729</v>
+        <v>4.03367805480957</v>
       </c>
       <c r="F220">
         <v>1140900</v>
@@ -6686,16 +6686,16 @@
         <v>44419</v>
       </c>
       <c r="B221">
-        <v>4.033678638408439</v>
+        <v>4.033678152953727</v>
       </c>
       <c r="C221">
-        <v>4.033678638408439</v>
+        <v>4.033678152953727</v>
       </c>
       <c r="D221">
-        <v>3.954118601148135</v>
+        <v>3.954118125268502</v>
       </c>
       <c r="E221">
-        <v>3.962074756622314</v>
+        <v>3.962074279785156</v>
       </c>
       <c r="F221">
         <v>481400</v>
@@ -6738,16 +6738,16 @@
         <v>44421</v>
       </c>
       <c r="B223">
-        <v>3.739306913822646</v>
+        <v>3.739307175027142</v>
       </c>
       <c r="C223">
-        <v>3.771130773392771</v>
+        <v>3.771131036820282</v>
       </c>
       <c r="D223">
-        <v>3.413112163543701</v>
+        <v>3.41311240196228</v>
       </c>
       <c r="E223">
-        <v>3.413112163543701</v>
+        <v>3.41311240196228</v>
       </c>
       <c r="F223">
         <v>2439400</v>
@@ -6946,16 +6946,16 @@
         <v>44433</v>
       </c>
       <c r="B231">
-        <v>3.182389418519177</v>
+        <v>3.182389191993213</v>
       </c>
       <c r="C231">
-        <v>3.357420669614764</v>
+        <v>3.357420430629884</v>
       </c>
       <c r="D231">
-        <v>3.150565554683616</v>
+        <v>3.15056533042291</v>
       </c>
       <c r="E231">
-        <v>3.349464893341064</v>
+        <v>3.349464654922485</v>
       </c>
       <c r="F231">
         <v>1900800</v>
@@ -7024,16 +7024,16 @@
         <v>44438</v>
       </c>
       <c r="B234">
-        <v>3.41311226210869</v>
+        <v>3.413112502206258</v>
       </c>
       <c r="C234">
-        <v>3.444936122597834</v>
+        <v>3.444936364934073</v>
       </c>
       <c r="D234">
-        <v>3.325596456078371</v>
+        <v>3.325596690019583</v>
       </c>
       <c r="E234">
-        <v>3.389244556427002</v>
+        <v>3.389244794845581</v>
       </c>
       <c r="F234">
         <v>1347300</v>
@@ -7076,16 +7076,16 @@
         <v>44440</v>
       </c>
       <c r="B236">
-        <v>3.341508613349467</v>
+        <v>3.341508374361885</v>
       </c>
       <c r="C236">
-        <v>3.381288631348776</v>
+        <v>3.381288389516092</v>
       </c>
       <c r="D236">
-        <v>3.253993180743576</v>
+        <v>3.253992948015172</v>
       </c>
       <c r="E236">
-        <v>3.333552837371826</v>
+        <v>3.333552598953247</v>
       </c>
       <c r="F236">
         <v>1889000</v>
@@ -7128,16 +7128,16 @@
         <v>44442</v>
       </c>
       <c r="B238">
-        <v>3.246037127056115</v>
+        <v>3.246036891523971</v>
       </c>
       <c r="C238">
-        <v>3.28581714630127</v>
+        <v>3.28581690788269</v>
       </c>
       <c r="D238">
-        <v>3.150565536112201</v>
+        <v>3.150565307507466</v>
       </c>
       <c r="E238">
-        <v>3.28581714630127</v>
+        <v>3.28581690788269</v>
       </c>
       <c r="F238">
         <v>3097500</v>
@@ -7284,16 +7284,16 @@
         <v>44453</v>
       </c>
       <c r="B244">
-        <v>2.983489667504409</v>
+        <v>2.98348989793473</v>
       </c>
       <c r="C244">
-        <v>3.166477048952826</v>
+        <v>3.166477293516207</v>
       </c>
       <c r="D244">
-        <v>2.983489667504409</v>
+        <v>2.98348989793473</v>
       </c>
       <c r="E244">
-        <v>3.086917400360107</v>
+        <v>3.086917638778687</v>
       </c>
       <c r="F244">
         <v>1159800</v>
@@ -7492,16 +7492,16 @@
         <v>44463</v>
       </c>
       <c r="B252">
-        <v>3.158521465729534</v>
+        <v>3.158521225495587</v>
       </c>
       <c r="C252">
-        <v>3.182389363191246</v>
+        <v>3.18238912114193</v>
       </c>
       <c r="D252">
-        <v>3.063049686197499</v>
+        <v>3.063049453225039</v>
       </c>
       <c r="E252">
-        <v>3.134653568267822</v>
+        <v>3.134653329849243</v>
       </c>
       <c r="F252">
         <v>782400</v>
@@ -7518,16 +7518,16 @@
         <v>44466</v>
       </c>
       <c r="B253">
-        <v>3.150565300324216</v>
+        <v>3.150565546193383</v>
       </c>
       <c r="C253">
-        <v>3.174433196273923</v>
+        <v>3.174433444005734</v>
       </c>
       <c r="D253">
-        <v>3.05509352684021</v>
+        <v>3.055093765258789</v>
       </c>
       <c r="E253">
-        <v>3.05509352684021</v>
+        <v>3.055093765258789</v>
       </c>
       <c r="F253">
         <v>624000</v>
@@ -7674,16 +7674,16 @@
         <v>44474</v>
       </c>
       <c r="B259">
-        <v>2.888018487639959</v>
+        <v>2.888018245891498</v>
       </c>
       <c r="C259">
-        <v>2.9039304195538</v>
+        <v>2.903930176473393</v>
       </c>
       <c r="D259">
-        <v>2.840282502213246</v>
+        <v>2.840282264460639</v>
       </c>
       <c r="E259">
-        <v>2.848238468170166</v>
+        <v>2.848238229751587</v>
       </c>
       <c r="F259">
         <v>480200</v>
@@ -7934,16 +7934,16 @@
         <v>44489</v>
       </c>
       <c r="B269">
-        <v>2.903930163733337</v>
+        <v>2.903930409560413</v>
       </c>
       <c r="C269">
-        <v>2.919842094245424</v>
+        <v>2.919842341419495</v>
       </c>
       <c r="D269">
-        <v>2.800502425719603</v>
+        <v>2.800502662791186</v>
       </c>
       <c r="E269">
-        <v>2.816414356231689</v>
+        <v>2.816414594650269</v>
       </c>
       <c r="F269">
         <v>1267700</v>
@@ -8038,16 +8038,16 @@
         <v>44495</v>
       </c>
       <c r="B273">
-        <v>2.585690944546698</v>
+        <v>2.585691188982143</v>
       </c>
       <c r="C273">
-        <v>2.585690944546698</v>
+        <v>2.585691188982143</v>
       </c>
       <c r="D273">
-        <v>2.466351286616633</v>
+        <v>2.466351519770436</v>
       </c>
       <c r="E273">
-        <v>2.522043228149414</v>
+        <v>2.522043466567993</v>
       </c>
       <c r="F273">
         <v>913800</v>
@@ -8064,16 +8064,16 @@
         <v>44496</v>
       </c>
       <c r="B274">
-        <v>2.522043580338667</v>
+        <v>2.52204334040632</v>
       </c>
       <c r="C274">
-        <v>2.593647271284666</v>
+        <v>2.593647024540366</v>
       </c>
       <c r="D274">
-        <v>2.482263562350151</v>
+        <v>2.482263326202241</v>
       </c>
       <c r="E274">
-        <v>2.506131649017334</v>
+        <v>2.506131410598755</v>
       </c>
       <c r="F274">
         <v>600800</v>
@@ -8142,16 +8142,16 @@
         <v>44501</v>
       </c>
       <c r="B277">
-        <v>2.442483695367213</v>
+        <v>2.442483468055096</v>
       </c>
       <c r="C277">
-        <v>2.56182336807251</v>
+        <v>2.561823129653931</v>
       </c>
       <c r="D277">
-        <v>2.426571764297864</v>
+        <v>2.426571538466606</v>
       </c>
       <c r="E277">
-        <v>2.56182336807251</v>
+        <v>2.561823129653931</v>
       </c>
       <c r="F277">
         <v>821400</v>
@@ -8168,16 +8168,16 @@
         <v>44503</v>
       </c>
       <c r="B278">
-        <v>2.522043346521378</v>
+        <v>2.522043572804891</v>
       </c>
       <c r="C278">
-        <v>2.705030729437229</v>
+        <v>2.705030972138789</v>
       </c>
       <c r="D278">
-        <v>2.498175451752158</v>
+        <v>2.498175675894189</v>
       </c>
       <c r="E278">
-        <v>2.657294750213623</v>
+        <v>2.657294988632202</v>
       </c>
       <c r="F278">
         <v>1155800</v>
@@ -8194,16 +8194,16 @@
         <v>44504</v>
       </c>
       <c r="B279">
-        <v>2.609558872569149</v>
+        <v>2.609559127296494</v>
       </c>
       <c r="C279">
-        <v>2.657294660495894</v>
+        <v>2.657294919882882</v>
       </c>
       <c r="D279">
-        <v>2.426571495831466</v>
+        <v>2.426571732696831</v>
       </c>
       <c r="E279">
-        <v>2.442483425140381</v>
+        <v>2.44248366355896</v>
       </c>
       <c r="F279">
         <v>1296900</v>
@@ -8324,16 +8324,16 @@
         <v>44511</v>
       </c>
       <c r="B284">
-        <v>2.577735483715025</v>
+        <v>2.577735266116093</v>
       </c>
       <c r="C284">
-        <v>2.824370622634888</v>
+        <v>2.824370384216309</v>
       </c>
       <c r="D284">
-        <v>2.553867585401993</v>
+        <v>2.553867369817864</v>
       </c>
       <c r="E284">
-        <v>2.824370622634888</v>
+        <v>2.824370384216309</v>
       </c>
       <c r="F284">
         <v>1607300</v>
@@ -8350,16 +8350,16 @@
         <v>44512</v>
       </c>
       <c r="B285">
-        <v>2.768678665161133</v>
+        <v>2.768678903579712</v>
       </c>
       <c r="C285">
-        <v>2.943710096830535</v>
+        <v>2.943710350321555</v>
       </c>
       <c r="D285">
-        <v>2.697074975258496</v>
+        <v>2.697075207511084</v>
       </c>
       <c r="E285">
-        <v>2.768678665161133</v>
+        <v>2.768678903579712</v>
       </c>
       <c r="F285">
         <v>1627500</v>
@@ -8428,16 +8428,16 @@
         <v>44518</v>
       </c>
       <c r="B288">
-        <v>2.697074971847155</v>
+        <v>2.697074720841254</v>
       </c>
       <c r="C288">
-        <v>2.736854799520528</v>
+        <v>2.736854544812478</v>
       </c>
       <c r="D288">
-        <v>2.47430755750591</v>
+        <v>2.474307327232075</v>
       </c>
       <c r="E288">
-        <v>2.56182336807251</v>
+        <v>2.561823129653931</v>
       </c>
       <c r="F288">
         <v>1529500</v>
@@ -8454,16 +8454,16 @@
         <v>44519</v>
       </c>
       <c r="B289">
-        <v>2.569779233026667</v>
+        <v>2.569778998242514</v>
       </c>
       <c r="C289">
-        <v>2.720942761954158</v>
+        <v>2.720942513359169</v>
       </c>
       <c r="D289">
-        <v>2.561823267803387</v>
+        <v>2.561823033746119</v>
       </c>
       <c r="E289">
-        <v>2.609559059143066</v>
+        <v>2.609558820724487</v>
       </c>
       <c r="F289">
         <v>1140100</v>
@@ -8480,16 +8480,16 @@
         <v>44522</v>
       </c>
       <c r="B290">
-        <v>2.625471300569238</v>
+        <v>2.625471064298572</v>
       </c>
       <c r="C290">
-        <v>2.681163063728728</v>
+        <v>2.681162822446265</v>
       </c>
       <c r="D290">
-        <v>2.498175841918974</v>
+        <v>2.498175617103844</v>
       </c>
       <c r="E290">
-        <v>2.649339199066162</v>
+        <v>2.649338960647583</v>
       </c>
       <c r="F290">
         <v>510000</v>
@@ -8532,16 +8532,16 @@
         <v>44524</v>
       </c>
       <c r="B292">
-        <v>2.617515334403596</v>
+        <v>2.617515098848901</v>
       </c>
       <c r="C292">
-        <v>2.649339199066162</v>
+        <v>2.649338960647583</v>
       </c>
       <c r="D292">
-        <v>2.522043740415898</v>
+        <v>2.522043513452856</v>
       </c>
       <c r="E292">
-        <v>2.649339199066162</v>
+        <v>2.649338960647583</v>
       </c>
       <c r="F292">
         <v>870500</v>
@@ -8558,16 +8558,16 @@
         <v>44525</v>
       </c>
       <c r="B293">
-        <v>2.64138313570491</v>
+        <v>2.641382906933333</v>
       </c>
       <c r="C293">
-        <v>2.752766847610474</v>
+        <v>2.752766609191895</v>
       </c>
       <c r="D293">
-        <v>2.625471203959142</v>
+        <v>2.625470976565706</v>
       </c>
       <c r="E293">
-        <v>2.752766847610474</v>
+        <v>2.752766609191895</v>
       </c>
       <c r="F293">
         <v>637000</v>
@@ -8688,16 +8688,16 @@
         <v>44532</v>
       </c>
       <c r="B298">
-        <v>2.370879743250263</v>
+        <v>2.370879974679379</v>
       </c>
       <c r="C298">
-        <v>2.514087296715658</v>
+        <v>2.514087542123719</v>
       </c>
       <c r="D298">
-        <v>2.370879743250263</v>
+        <v>2.370879974679379</v>
       </c>
       <c r="E298">
-        <v>2.442483425140381</v>
+        <v>2.44248366355896</v>
       </c>
       <c r="F298">
         <v>844200</v>
@@ -8818,16 +8818,16 @@
         <v>44539</v>
       </c>
       <c r="B303">
-        <v>2.537955372133547</v>
+        <v>2.537955140256935</v>
       </c>
       <c r="C303">
-        <v>2.633426954812906</v>
+        <v>2.633426714213671</v>
       </c>
       <c r="D303">
-        <v>2.514087476463707</v>
+        <v>2.514087246767751</v>
       </c>
       <c r="E303">
-        <v>2.609559059143066</v>
+        <v>2.609558820724487</v>
       </c>
       <c r="F303">
         <v>996000</v>
@@ -8870,16 +8870,16 @@
         <v>44543</v>
       </c>
       <c r="B305">
-        <v>2.712986721200146</v>
+        <v>2.712986956854454</v>
       </c>
       <c r="C305">
-        <v>2.768678476212623</v>
+        <v>2.768678716704405</v>
       </c>
       <c r="D305">
-        <v>2.657294776502501</v>
+        <v>2.657295007319319</v>
       </c>
       <c r="E305">
-        <v>2.744810581207275</v>
+        <v>2.744810819625854</v>
       </c>
       <c r="F305">
         <v>358600</v>
@@ -8896,16 +8896,16 @@
         <v>44544</v>
       </c>
       <c r="B306">
-        <v>2.744810618996578</v>
+        <v>2.74481086453214</v>
       </c>
       <c r="C306">
-        <v>2.880062025888958</v>
+        <v>2.880062283523362</v>
       </c>
       <c r="D306">
-        <v>2.569779196862444</v>
+        <v>2.569779426740664</v>
       </c>
       <c r="E306">
-        <v>2.665250778198242</v>
+        <v>2.665251016616821</v>
       </c>
       <c r="F306">
         <v>1587400</v>
@@ -8948,16 +8948,16 @@
         <v>44546</v>
       </c>
       <c r="B308">
-        <v>2.752766518975668</v>
+        <v>2.752766765960193</v>
       </c>
       <c r="C308">
-        <v>2.816414238360254</v>
+        <v>2.816414491055399</v>
       </c>
       <c r="D308">
-        <v>2.657294750213623</v>
+        <v>2.657294988632202</v>
       </c>
       <c r="E308">
-        <v>2.657294750213623</v>
+        <v>2.657294988632202</v>
       </c>
       <c r="F308">
         <v>429400</v>
@@ -8974,16 +8974,16 @@
         <v>44547</v>
       </c>
       <c r="B309">
-        <v>2.681162671507848</v>
+        <v>2.68116290439787</v>
       </c>
       <c r="C309">
-        <v>2.744810581207275</v>
+        <v>2.744810819625854</v>
       </c>
       <c r="D309">
-        <v>2.569779161482895</v>
+        <v>2.569779384697969</v>
       </c>
       <c r="E309">
-        <v>2.744810581207275</v>
+        <v>2.744810819625854</v>
       </c>
       <c r="F309">
         <v>829500</v>
@@ -9000,16 +9000,16 @@
         <v>44550</v>
       </c>
       <c r="B310">
-        <v>2.736854888079583</v>
+        <v>2.736854640297124</v>
       </c>
       <c r="C310">
-        <v>2.736854888079583</v>
+        <v>2.736854640297124</v>
       </c>
       <c r="D310">
-        <v>2.633427143096924</v>
+        <v>2.633426904678345</v>
       </c>
       <c r="E310">
-        <v>2.633427143096924</v>
+        <v>2.633426904678345</v>
       </c>
       <c r="F310">
         <v>340900</v>
@@ -9390,16 +9390,16 @@
         <v>44573</v>
       </c>
       <c r="B325">
-        <v>2.458395665368152</v>
+        <v>2.458395431490892</v>
       </c>
       <c r="C325">
-        <v>2.529999545999333</v>
+        <v>2.529999305310104</v>
       </c>
       <c r="D325">
-        <v>2.434527768386152</v>
+        <v>2.434527536779544</v>
       </c>
       <c r="E325">
-        <v>2.506131649017334</v>
+        <v>2.506131410598755</v>
       </c>
       <c r="F325">
         <v>488100</v>
@@ -9442,16 +9442,16 @@
         <v>44575</v>
       </c>
       <c r="B327">
-        <v>2.514087614678</v>
+        <v>2.514087375502538</v>
       </c>
       <c r="C327">
-        <v>2.593647271284666</v>
+        <v>2.593647024540366</v>
       </c>
       <c r="D327">
-        <v>2.426571802725485</v>
+        <v>2.426571571875761</v>
       </c>
       <c r="E327">
-        <v>2.506131649017334</v>
+        <v>2.506131410598755</v>
       </c>
       <c r="F327">
         <v>622200</v>
@@ -9494,16 +9494,16 @@
         <v>44579</v>
       </c>
       <c r="B329">
-        <v>2.585691014925639</v>
+        <v>2.585691273212433</v>
       </c>
       <c r="C329">
-        <v>2.60160294445806</v>
+        <v>2.60160320433431</v>
       </c>
       <c r="D329">
-        <v>2.362923811786573</v>
+        <v>2.362924047820968</v>
       </c>
       <c r="E329">
-        <v>2.386791706085205</v>
+        <v>2.386791944503784</v>
       </c>
       <c r="F329">
         <v>1611000</v>
@@ -9520,16 +9520,16 @@
         <v>44580</v>
       </c>
       <c r="B330">
-        <v>2.426571720823333</v>
+        <v>2.426571480831035</v>
       </c>
       <c r="C330">
-        <v>2.474307513176143</v>
+        <v>2.47430726846269</v>
       </c>
       <c r="D330">
-        <v>2.354968032294117</v>
+        <v>2.354967799383552</v>
       </c>
       <c r="E330">
-        <v>2.410659790039062</v>
+        <v>2.410659551620483</v>
       </c>
       <c r="F330">
         <v>1743300</v>
@@ -9598,16 +9598,16 @@
         <v>44585</v>
       </c>
       <c r="B333">
-        <v>2.64933907468115</v>
+        <v>2.649338834821977</v>
       </c>
       <c r="C333">
-        <v>2.657295040473263</v>
+        <v>2.657294799893793</v>
       </c>
       <c r="D333">
-        <v>2.537955553591564</v>
+        <v>2.537955323816551</v>
       </c>
       <c r="E333">
-        <v>2.633427143096924</v>
+        <v>2.633426904678345</v>
       </c>
       <c r="F333">
         <v>671600</v>
@@ -9624,16 +9624,16 @@
         <v>44586</v>
       </c>
       <c r="B334">
-        <v>2.633426881497154</v>
+        <v>2.633427110240769</v>
       </c>
       <c r="C334">
-        <v>2.744810581207275</v>
+        <v>2.744810819625854</v>
       </c>
       <c r="D334">
-        <v>2.585691091486459</v>
+        <v>2.585691316083669</v>
       </c>
       <c r="E334">
-        <v>2.744810581207275</v>
+        <v>2.744810819625854</v>
       </c>
       <c r="F334">
         <v>564200</v>
@@ -9650,16 +9650,16 @@
         <v>44587</v>
       </c>
       <c r="B335">
-        <v>2.768678665161133</v>
+        <v>2.768678903579712</v>
       </c>
       <c r="C335">
-        <v>2.864150251697981</v>
+        <v>2.864150498337882</v>
       </c>
       <c r="D335">
-        <v>2.736854802982183</v>
+        <v>2.736855038660321</v>
       </c>
       <c r="E335">
-        <v>2.768678665161133</v>
+        <v>2.768678903579712</v>
       </c>
       <c r="F335">
         <v>1067900</v>
@@ -9780,16 +9780,16 @@
         <v>44594</v>
       </c>
       <c r="B340">
-        <v>2.991445667445923</v>
+        <v>2.991445904603029</v>
       </c>
       <c r="C340">
-        <v>3.086917436561997</v>
+        <v>3.086917681287955</v>
       </c>
       <c r="D340">
-        <v>2.911886017920167</v>
+        <v>2.91188624876991</v>
       </c>
       <c r="E340">
-        <v>3.007357597351074</v>
+        <v>3.007357835769653</v>
       </c>
       <c r="F340">
         <v>579700</v>
@@ -9832,16 +9832,16 @@
         <v>44596</v>
       </c>
       <c r="B342">
-        <v>3.01531356230365</v>
+        <v>3.015313801352965</v>
       </c>
       <c r="C342">
-        <v>3.023269527256225</v>
+        <v>3.023269766936277</v>
       </c>
       <c r="D342">
-        <v>2.816414248804093</v>
+        <v>2.816414472084984</v>
       </c>
       <c r="E342">
-        <v>3.007357597351074</v>
+        <v>3.007357835769653</v>
       </c>
       <c r="F342">
         <v>700500</v>
@@ -9884,16 +9884,16 @@
         <v>44600</v>
       </c>
       <c r="B344">
-        <v>2.975533873674518</v>
+        <v>2.975534105884285</v>
       </c>
       <c r="C344">
-        <v>3.071005457473348</v>
+        <v>3.07100569713369</v>
       </c>
       <c r="D344">
-        <v>2.943710012408241</v>
+        <v>2.943710242134484</v>
       </c>
       <c r="E344">
-        <v>3.05509352684021</v>
+        <v>3.055093765258789</v>
       </c>
       <c r="F344">
         <v>666300</v>
@@ -9988,16 +9988,16 @@
         <v>44606</v>
       </c>
       <c r="B348">
-        <v>2.784590818332481</v>
+        <v>2.784590572901598</v>
       </c>
       <c r="C348">
-        <v>2.816414683049506</v>
+        <v>2.816414434813701</v>
       </c>
       <c r="D348">
-        <v>2.705031156539917</v>
+        <v>2.705030918121338</v>
       </c>
       <c r="E348">
-        <v>2.705031156539917</v>
+        <v>2.705030918121338</v>
       </c>
       <c r="F348">
         <v>522000</v>
@@ -10118,16 +10118,16 @@
         <v>44613</v>
       </c>
       <c r="B353">
-        <v>2.784590483740398</v>
+        <v>2.784590229330326</v>
       </c>
       <c r="C353">
-        <v>2.784590483740398</v>
+        <v>2.784590229330326</v>
       </c>
       <c r="D353">
-        <v>2.553867302580107</v>
+        <v>2.553867069249725</v>
       </c>
       <c r="E353">
-        <v>2.609559059143066</v>
+        <v>2.609558820724487</v>
       </c>
       <c r="F353">
         <v>519000</v>
@@ -10144,16 +10144,16 @@
         <v>44614</v>
       </c>
       <c r="B354">
-        <v>2.609558960675184</v>
+        <v>2.609559194810798</v>
       </c>
       <c r="C354">
-        <v>2.705030729437229</v>
+        <v>2.705030972138789</v>
       </c>
       <c r="D354">
-        <v>2.585691065905964</v>
+        <v>2.585691297900096</v>
       </c>
       <c r="E354">
-        <v>2.657294750213623</v>
+        <v>2.657294988632202</v>
       </c>
       <c r="F354">
         <v>332900</v>
@@ -10170,16 +10170,16 @@
         <v>44615</v>
       </c>
       <c r="B355">
-        <v>2.609559287722418</v>
+        <v>2.609559046360403</v>
       </c>
       <c r="C355">
-        <v>2.689119136609283</v>
+        <v>2.689118887888659</v>
       </c>
       <c r="D355">
-        <v>2.577735424041748</v>
+        <v>2.577735185623169</v>
       </c>
       <c r="E355">
-        <v>2.577735424041748</v>
+        <v>2.577735185623169</v>
       </c>
       <c r="F355">
         <v>426400</v>
@@ -10196,16 +10196,16 @@
         <v>44616</v>
       </c>
       <c r="B356">
-        <v>2.522043228149414</v>
+        <v>2.522043466567993</v>
       </c>
       <c r="C356">
-        <v>2.593646909096358</v>
+        <v>2.593647154283913</v>
       </c>
       <c r="D356">
-        <v>2.40270357021935</v>
+        <v>2.402703797356286</v>
       </c>
       <c r="E356">
-        <v>2.522043228149414</v>
+        <v>2.522043466567993</v>
       </c>
       <c r="F356">
         <v>673200</v>
@@ -10222,16 +10222,16 @@
         <v>44617</v>
       </c>
       <c r="B357">
-        <v>2.506131649017334</v>
+        <v>2.506131410598755</v>
       </c>
       <c r="C357">
-        <v>2.53795551166</v>
+        <v>2.537955270213887</v>
       </c>
       <c r="D357">
-        <v>2.490219717696001</v>
+        <v>2.490219480791189</v>
       </c>
       <c r="E357">
-        <v>2.506131649017334</v>
+        <v>2.506131410598755</v>
       </c>
       <c r="F357">
         <v>660300</v>
@@ -10274,16 +10274,16 @@
         <v>44623</v>
       </c>
       <c r="B359">
-        <v>2.522043580338667</v>
+        <v>2.52204334040632</v>
       </c>
       <c r="C359">
-        <v>2.593647271284666</v>
+        <v>2.593647024540366</v>
       </c>
       <c r="D359">
-        <v>2.506131649017334</v>
+        <v>2.506131410598755</v>
       </c>
       <c r="E359">
-        <v>2.506131649017334</v>
+        <v>2.506131410598755</v>
       </c>
       <c r="F359">
         <v>482800</v>
@@ -10404,16 +10404,16 @@
         <v>44630</v>
       </c>
       <c r="B364">
-        <v>2.466351319103754</v>
+        <v>2.466351559852154</v>
       </c>
       <c r="C364">
-        <v>2.466351319103754</v>
+        <v>2.466351559852154</v>
       </c>
       <c r="D364">
-        <v>2.362923778595805</v>
+        <v>2.362924009248315</v>
       </c>
       <c r="E364">
-        <v>2.442483425140381</v>
+        <v>2.44248366355896</v>
       </c>
       <c r="F364">
         <v>375000</v>
@@ -10430,16 +10430,16 @@
         <v>44631</v>
       </c>
       <c r="B365">
-        <v>2.450439815626207</v>
+        <v>2.450439553365773</v>
       </c>
       <c r="C365">
-        <v>2.450439815626207</v>
+        <v>2.450439553365773</v>
       </c>
       <c r="D365">
-        <v>2.187892746719169</v>
+        <v>2.18789251255806</v>
       </c>
       <c r="E365">
-        <v>2.227672576904297</v>
+        <v>2.227672338485718</v>
       </c>
       <c r="F365">
         <v>1471800</v>
@@ -10456,16 +10456,16 @@
         <v>44634</v>
       </c>
       <c r="B366">
-        <v>2.283364302167123</v>
+        <v>2.283364039998034</v>
       </c>
       <c r="C366">
-        <v>2.283364302167123</v>
+        <v>2.283364039998034</v>
       </c>
       <c r="D366">
-        <v>2.07650899887085</v>
+        <v>2.076508760452271</v>
       </c>
       <c r="E366">
-        <v>2.07650899887085</v>
+        <v>2.076508760452271</v>
       </c>
       <c r="F366">
         <v>817700</v>
@@ -10482,16 +10482,16 @@
         <v>44635</v>
       </c>
       <c r="B367">
-        <v>2.124244739381915</v>
+        <v>2.124244980509794</v>
       </c>
       <c r="C367">
-        <v>2.148112634357702</v>
+        <v>2.14811287819488</v>
       </c>
       <c r="D367">
-        <v>2.028772969793598</v>
+        <v>2.028773200084258</v>
       </c>
       <c r="E367">
-        <v>2.100376844406128</v>
+        <v>2.100377082824707</v>
       </c>
       <c r="F367">
         <v>1483400</v>
@@ -10534,16 +10534,16 @@
         <v>44637</v>
       </c>
       <c r="B369">
-        <v>2.108333020620234</v>
+        <v>2.108332766881577</v>
       </c>
       <c r="C369">
-        <v>2.12424495219822</v>
+        <v>2.124244696544557</v>
       </c>
       <c r="D369">
-        <v>1.965125446733171</v>
+        <v>1.965125210229599</v>
       </c>
       <c r="E369">
-        <v>1.981037378311157</v>
+        <v>1.981037139892578</v>
       </c>
       <c r="F369">
         <v>3066900</v>
@@ -10560,16 +10560,16 @@
         <v>44638</v>
       </c>
       <c r="B370">
-        <v>2.012861277677651</v>
+        <v>2.012861052603403</v>
       </c>
       <c r="C370">
-        <v>2.132200956344604</v>
+        <v>2.132200717926025</v>
       </c>
       <c r="D370">
-        <v>1.98103741394918</v>
+        <v>1.981037192433415</v>
       </c>
       <c r="E370">
-        <v>2.132200956344604</v>
+        <v>2.132200717926025</v>
       </c>
       <c r="F370">
         <v>2742300</v>
@@ -10586,16 +10586,16 @@
         <v>44641</v>
       </c>
       <c r="B371">
-        <v>2.156068534440816</v>
+        <v>2.156068780111664</v>
       </c>
       <c r="C371">
-        <v>2.179936428698056</v>
+        <v>2.179936677088505</v>
       </c>
       <c r="D371">
-        <v>2.07650869723152</v>
+        <v>2.07650893383701</v>
       </c>
       <c r="E371">
-        <v>2.092420816421509</v>
+        <v>2.092421054840088</v>
       </c>
       <c r="F371">
         <v>1453700</v>
@@ -10612,16 +10612,16 @@
         <v>44642</v>
       </c>
       <c r="B372">
-        <v>2.132200780634162</v>
+        <v>2.132201018166428</v>
       </c>
       <c r="C372">
-        <v>2.148112711187127</v>
+        <v>2.14811295049202</v>
       </c>
       <c r="D372">
-        <v>2.108332884804716</v>
+        <v>2.10833311967804</v>
       </c>
       <c r="E372">
-        <v>2.140156745910645</v>
+        <v>2.140156984329224</v>
       </c>
       <c r="F372">
         <v>994900</v>
@@ -10924,16 +10924,16 @@
         <v>44658</v>
       </c>
       <c r="B384">
-        <v>2.339055884632433</v>
+        <v>2.339056112955121</v>
       </c>
       <c r="C384">
-        <v>2.442483425140381</v>
+        <v>2.44248366355896</v>
       </c>
       <c r="D384">
-        <v>2.323143955323518</v>
+        <v>2.323144182092991</v>
       </c>
       <c r="E384">
-        <v>2.442483425140381</v>
+        <v>2.44248366355896</v>
       </c>
       <c r="F384">
         <v>560100</v>
@@ -10976,16 +10976,16 @@
         <v>44662</v>
       </c>
       <c r="B386">
-        <v>2.458395388981103</v>
+        <v>2.458395634552232</v>
       </c>
       <c r="C386">
-        <v>2.458395388981103</v>
+        <v>2.458395634552232</v>
       </c>
       <c r="D386">
-        <v>2.362923811786573</v>
+        <v>2.362924047820968</v>
       </c>
       <c r="E386">
-        <v>2.386791706085205</v>
+        <v>2.386791944503784</v>
       </c>
       <c r="F386">
         <v>548700</v>
@@ -11028,16 +11028,16 @@
         <v>44664</v>
       </c>
       <c r="B388">
-        <v>2.347012266879662</v>
+        <v>2.347012019226549</v>
       </c>
       <c r="C388">
-        <v>2.370880165089736</v>
+        <v>2.370879914918119</v>
       </c>
       <c r="D388">
-        <v>2.259496450424194</v>
+        <v>2.259496212005615</v>
       </c>
       <c r="E388">
-        <v>2.259496450424194</v>
+        <v>2.259496212005615</v>
       </c>
       <c r="F388">
         <v>1460900</v>
@@ -11054,16 +11054,16 @@
         <v>44665</v>
       </c>
       <c r="B389">
-        <v>2.259496507592191</v>
+        <v>2.259496272484997</v>
       </c>
       <c r="C389">
-        <v>2.354968292533234</v>
+        <v>2.354968047491924</v>
       </c>
       <c r="D389">
-        <v>2.24358457504955</v>
+        <v>2.243584341598039</v>
       </c>
       <c r="E389">
-        <v>2.291320562362671</v>
+        <v>2.291320323944092</v>
       </c>
       <c r="F389">
         <v>642200</v>
@@ -11080,16 +11080,16 @@
         <v>44669</v>
       </c>
       <c r="B390">
-        <v>2.299276528633992</v>
+        <v>2.299276289387571</v>
       </c>
       <c r="C390">
-        <v>2.331100393719273</v>
+        <v>2.331100151161487</v>
       </c>
       <c r="D390">
-        <v>2.25154054132087</v>
+        <v>2.251540307041518</v>
       </c>
       <c r="E390">
-        <v>2.291320562362671</v>
+        <v>2.291320323944092</v>
       </c>
       <c r="F390">
         <v>455800</v>
@@ -11132,16 +11132,16 @@
         <v>44671</v>
       </c>
       <c r="B392">
-        <v>2.33109997284976</v>
+        <v>2.331100214568247</v>
       </c>
       <c r="C392">
-        <v>2.38679172669411</v>
+        <v>2.386791974187436</v>
       </c>
       <c r="D392">
-        <v>2.299276113510132</v>
+        <v>2.299276351928711</v>
       </c>
       <c r="E392">
-        <v>2.299276113510132</v>
+        <v>2.299276351928711</v>
       </c>
       <c r="F392">
         <v>634400</v>
@@ -11158,16 +11158,16 @@
         <v>44673</v>
       </c>
       <c r="B393">
-        <v>2.283364339163477</v>
+        <v>2.283364094784438</v>
       </c>
       <c r="C393">
-        <v>2.315188392996772</v>
+        <v>2.315188145211737</v>
       </c>
       <c r="D393">
-        <v>2.211760644830246</v>
+        <v>2.211760408114655</v>
       </c>
       <c r="E393">
-        <v>2.227672576904297</v>
+        <v>2.227672338485718</v>
       </c>
       <c r="F393">
         <v>636600</v>
@@ -11184,16 +11184,16 @@
         <v>44676</v>
       </c>
       <c r="B394">
-        <v>2.219716261679998</v>
+        <v>2.219716497562212</v>
       </c>
       <c r="C394">
-        <v>2.267452050392755</v>
+        <v>2.2674522913477</v>
       </c>
       <c r="D394">
-        <v>2.164024508181781</v>
+        <v>2.164024738145809</v>
       </c>
       <c r="E394">
-        <v>2.243584156036377</v>
+        <v>2.243584394454956</v>
       </c>
       <c r="F394">
         <v>747400</v>
@@ -11210,16 +11210,16 @@
         <v>44677</v>
       </c>
       <c r="B395">
-        <v>2.235628706488912</v>
+        <v>2.235628459272608</v>
       </c>
       <c r="C395">
-        <v>2.267452572965092</v>
+        <v>2.267452322229697</v>
       </c>
       <c r="D395">
-        <v>2.156069040298462</v>
+        <v>2.156068801879883</v>
       </c>
       <c r="E395">
-        <v>2.156069040298462</v>
+        <v>2.156068801879883</v>
       </c>
       <c r="F395">
         <v>431300</v>
@@ -11262,16 +11262,16 @@
         <v>44679</v>
       </c>
       <c r="B397">
-        <v>2.267452407089425</v>
+        <v>2.267452164413375</v>
       </c>
       <c r="C397">
-        <v>2.283364339163477</v>
+        <v>2.283364094784438</v>
       </c>
       <c r="D397">
-        <v>2.179936780682143</v>
+        <v>2.179936547372529</v>
       </c>
       <c r="E397">
-        <v>2.227672576904297</v>
+        <v>2.227672338485718</v>
       </c>
       <c r="F397">
         <v>952300</v>
@@ -31066,6 +31066,58 @@
         <v>0</v>
       </c>
       <c r="H1158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:8">
+      <c r="A1159" s="2">
+        <v>45796</v>
+      </c>
+      <c r="B1159">
+        <v>14.39000034332275</v>
+      </c>
+      <c r="C1159">
+        <v>14.75</v>
+      </c>
+      <c r="D1159">
+        <v>14.21000003814697</v>
+      </c>
+      <c r="E1159">
+        <v>14.69999980926514</v>
+      </c>
+      <c r="F1159">
+        <v>654500</v>
+      </c>
+      <c r="G1159">
+        <v>0</v>
+      </c>
+      <c r="H1159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:8">
+      <c r="A1160" s="2">
+        <v>45797</v>
+      </c>
+      <c r="B1160">
+        <v>14.69999980926514</v>
+      </c>
+      <c r="C1160">
+        <v>15.27999973297119</v>
+      </c>
+      <c r="D1160">
+        <v>14.67000007629395</v>
+      </c>
+      <c r="E1160">
+        <v>14.92000007629395</v>
+      </c>
+      <c r="F1160">
+        <v>1033900</v>
+      </c>
+      <c r="G1160">
+        <v>0</v>
+      </c>
+      <c r="H1160">
         <v>0</v>
       </c>
     </row>
@@ -31119,34 +31171,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C2">
-        <v>6.52183104418511</v>
+        <v>6.535676029866594</v>
       </c>
       <c r="D2">
-        <v>5.561220937465355</v>
+        <v>5.566129816505422</v>
       </c>
       <c r="E2">
         <v>10.75</v>
       </c>
       <c r="F2">
-        <v>3.445246300666522</v>
+        <v>3.458359135761534</v>
       </c>
       <c r="G2">
         <v>1.608367233207837</v>
       </c>
       <c r="H2">
-        <v>3.183051234334589</v>
+        <v>3.187261650639111</v>
       </c>
       <c r="I2">
-        <v>9.779798761009792</v>
+        <v>9.789222366401084</v>
       </c>
       <c r="J2">
-        <v>6.596747526675203</v>
+        <v>6.601960715761973</v>
       </c>
       <c r="K2">
-        <v>14.39000034332275</v>
+        <v>14.69999980926514</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -31154,34 +31206,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C3">
-        <v>6.676302309336068</v>
+        <v>6.690691779072335</v>
       </c>
       <c r="D3">
-        <v>5.669506594607328</v>
+        <v>5.675599357627413</v>
       </c>
       <c r="E3">
-        <v>2.593647271284666</v>
+        <v>2.593647024540366</v>
       </c>
       <c r="F3">
-        <v>3.519411521048715</v>
+        <v>3.53339384330233</v>
       </c>
       <c r="G3">
         <v>1.667312708926614</v>
       </c>
       <c r="H3">
-        <v>3.292521476745605</v>
+        <v>3.29673180504241</v>
       </c>
       <c r="I3">
-        <v>9.995974569622257</v>
+        <v>10.0241681241117</v>
       </c>
       <c r="J3">
-        <v>6.703453092876652</v>
+        <v>6.727436319069287</v>
       </c>
       <c r="K3">
-        <v>14.64000034332275</v>
+        <v>15.27999973297119</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -31189,34 +31241,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C4">
-        <v>6.361542124025937</v>
+        <v>6.375482517754679</v>
       </c>
       <c r="D4">
-        <v>5.395750640627824</v>
+        <v>5.398793732923899</v>
       </c>
       <c r="E4">
         <v>11.75</v>
       </c>
       <c r="F4">
-        <v>3.377903782198075</v>
+        <v>3.39162765638861</v>
       </c>
       <c r="G4">
         <v>1.566263418352951</v>
       </c>
       <c r="H4">
-        <v>3.073581421235287</v>
+        <v>3.076271396805388</v>
       </c>
       <c r="I4">
-        <v>9.546328704210236</v>
+        <v>9.576592499295394</v>
       </c>
       <c r="J4">
-        <v>6.472747282974948</v>
+        <v>6.500321102490006</v>
       </c>
       <c r="K4">
-        <v>14.15999984741211</v>
+        <v>14.67000007629395</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -31224,34 +31276,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C5">
-        <v>6.520981127162791</v>
+        <v>6.535284870137831</v>
       </c>
       <c r="D5">
-        <v>5.476139545440674</v>
+        <v>5.483874797821045</v>
       </c>
       <c r="E5">
         <v>3.368308305740356</v>
       </c>
       <c r="F5">
-        <v>3.452684100584813</v>
+        <v>3.466831551081099</v>
       </c>
       <c r="G5">
         <v>1.616788029670715</v>
       </c>
       <c r="H5">
-        <v>3.166209697723389</v>
+        <v>3.166343450546265</v>
       </c>
       <c r="I5">
-        <v>9.757299423217773</v>
+        <v>9.771151542663574</v>
       </c>
       <c r="J5">
-        <v>6.591089725494385</v>
+        <v>6.60480809211731</v>
       </c>
       <c r="K5">
-        <v>14.44999980926514</v>
+        <v>14.92000007629395</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -31259,10 +31311,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C6">
-        <v>952310.5445116682</v>
+        <v>952123.9861949957</v>
       </c>
       <c r="D6">
         <v>782400</v>
@@ -31271,19 +31323,19 @@
         <v>426400</v>
       </c>
       <c r="F6">
-        <v>689530.7502542265</v>
+        <v>688994.7731572298</v>
       </c>
       <c r="G6">
         <v>93000</v>
       </c>
       <c r="H6">
-        <v>515300</v>
+        <v>516950</v>
       </c>
       <c r="I6">
-        <v>1185900</v>
+        <v>1185100</v>
       </c>
       <c r="J6">
-        <v>670600</v>
+        <v>668150</v>
       </c>
       <c r="K6">
         <v>6292000</v>
@@ -31294,10 +31346,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C7">
-        <v>0.001752426966292135</v>
+        <v>0.001749402933563417</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -31306,7 +31358,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03421005135738084</v>
+        <v>0.03418057368563508</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -31329,7 +31381,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1157</v>
+        <v>1159</v>
       </c>
       <c r="C8">
         <v>0</v>
